--- a/2019/Disadvantages of Models/Algorithms.xlsx
+++ b/2019/Disadvantages of Models/Algorithms.xlsx
@@ -9,10 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="6" r:id="rId1"/>
+    <sheet name="Algorithms" sheetId="1" r:id="rId2"/>
+    <sheet name="UnderFitting and Overfitting" sheetId="2" r:id="rId3"/>
+    <sheet name="Ensemble Models" sheetId="3" r:id="rId4"/>
+    <sheet name="Regularizations L1 and L2" sheetId="4" r:id="rId5"/>
+    <sheet name="Gradient Descent" sheetId="5" r:id="rId6"/>
+    <sheet name="Rsquare and Adjusted Rsquare" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t>Algorithm</t>
   </si>
@@ -90,6 +96,9 @@
   </si>
   <si>
     <t>Fast</t>
+  </si>
+  <si>
+    <t>Slow</t>
   </si>
   <si>
     <t>Understanding</t>
@@ -173,15 +182,214 @@
 model.fit(X,y)
 predicted = model.predict(z)</t>
   </si>
+  <si>
+    <t>Hard to Interpret</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Light GBM</t>
+  </si>
+  <si>
+    <t>Cat Boost</t>
+  </si>
+  <si>
+    <t>Feature Importance</t>
+  </si>
+  <si>
+    <t>No. It's hard to get the Feature Importance</t>
+  </si>
+  <si>
+    <t>Risk of overfitting is less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It can handle more complex dimensions
+• SVM’s are very good when we have no idea on the data.
+• Works well with even unstructured and semi structured data like text, Images and trees.
+• The kernel trick is real strength of SVM. With an appropriate kernel function, we can solve any complex problem.
+• Unlike in neural networks, SVM is not solved for local optima.
+</t>
+  </si>
+  <si>
+    <t>Linear SVM</t>
+  </si>
+  <si>
+    <t>Linear SVM is good when there is a lot of features (Text Has lot of features)</t>
+  </si>
+  <si>
+    <t># Python code for Support Vector Machines
+from sklearn.svm import SVC
+model = SVC(kernel=’rbf’)
+model.fit(X,y)
+predicted = model.predict(z)</t>
+  </si>
+  <si>
+    <t>Hyperparameters</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t># Python code for Support Vector Machines
+from sklearn.svm import SVC
+model = SVC(kernel=’linear’)
+model.fit(X,y)
+predicted = model.predict(z)</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t># Python code for Decision Tree
+from sklearn.tree import DecisionTreeClassifier
+model = DecisionTreeClassifer()
+model.fit(X,y)
+predicted = model.predict(z)</t>
+  </si>
+  <si>
+    <t>Less memory required</t>
+  </si>
+  <si>
+    <t>More Memory</t>
+  </si>
+  <si>
+    <t>More Training Time</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/understanding-the-bias-variance-tradeoff-165e6942b229</t>
+  </si>
+  <si>
+    <t>In supervised learning, underfitting happens when a model unable to capture the underlying pattern of the data. These models usually have high bias and low variance. It happens when we have very less amount of data to build an accurate model or when we try to build a linear model with a nonlinear data. Also, these kind of models are very simple to capture the complex patterns in data like Linear and logistic regression.</t>
+  </si>
+  <si>
+    <t>In supervised learning, overfitting happens when our model captures the noise along with the underlying pattern in data. It happens when we train our model a lot over noisy dataset. These models have low bias and high variance. These models are very complex like Decision trees which are prone to overfitting.</t>
+  </si>
+  <si>
+    <t>Yes (It will easily absorb the noise)</t>
+  </si>
+  <si>
+    <t>Why is Bias Variance Tradeoff?
+If our model is too simple and has very few parameters then it may have high bias and low variance. On the other hand if our model has large number of parameters then it’s going to have high variance and low bias. So we need to find the right/good balance without overfitting and underfitting the data.
+This tradeoff in complexity is why there is a tradeoff between bias and variance. An algorithm can’t be more complex and less complex at the same time.</t>
+  </si>
+  <si>
+    <t>It will capture the Noise</t>
+  </si>
+  <si>
+    <t>It works but overfit</t>
+  </si>
+  <si>
+    <t>It will fit to the data</t>
+  </si>
+  <si>
+    <t>Training Time is High</t>
+  </si>
+  <si>
+    <t>It's hard to interpret and won't perform well if given a set of bad features.</t>
+  </si>
+  <si>
+    <t>It handles the large dimension is a good way</t>
+  </si>
+  <si>
+    <t>More training time is required</t>
+  </si>
+  <si>
+    <t>N_estimators (Increase): Reduces Vairance</t>
+  </si>
+  <si>
+    <t>Depth increases it will tend to overfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_estimators (increase): High variance
+Learning_rate(v) (Increases): High variance
+</t>
+  </si>
+  <si>
+    <t>Not fast it the input dimensions are high</t>
+  </si>
+  <si>
+    <t>Works really well</t>
+  </si>
+  <si>
+    <t>Fast/Slow</t>
+  </si>
+  <si>
+    <t>Long Training time for Large Datasets 
+O(Nsquare)
+If N is very very large it is good to go with Logistic Regression</t>
+  </si>
+  <si>
+    <t>If N is very very large it will handle</t>
+  </si>
+  <si>
+    <t>It scales good to high dimensional data
+It works good if the number of dimensions is greater than the number of samples</t>
+  </si>
+  <si>
+    <t>Doesn't Perform well if we have noise i.e., Target classes overlapping</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2018/06/comprehensive-guide-for-ensemble-models/</t>
+  </si>
+  <si>
+    <t>Is less weh we have large dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C (Increases) - High Variance
+gamma increases - </t>
+  </si>
+  <si>
+    <t>Regularization will control overfitting</t>
+  </si>
+  <si>
+    <t>Ada Boost</t>
+  </si>
+  <si>
+    <t>https://www.kdnuggets.com/2017/04/simple-understand-gradient-descent-algorithm.html</t>
+  </si>
+  <si>
+    <t>Adjusted R2 and R2</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2017/06/a-comprehensive-guide-for-linear-ridge-and-lasso-regression/</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2016/03/complete-guide-parameter-tuning-xgboost-with-codes-python/</t>
+  </si>
+  <si>
+    <t>XGBOOSTING PARAMETER TUNING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,10 +433,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,8 +452,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,348 +752,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="24.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="56.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="24.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="56.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="48" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="P3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:N3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2019/Disadvantages of Models/Algorithms.xlsx
+++ b/2019/Disadvantages of Models/Algorithms.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -19,10 +14,11 @@
     <sheet name="Regularizations L1 and L2" sheetId="4" r:id="rId5"/>
     <sheet name="Gradient Descent" sheetId="5" r:id="rId6"/>
     <sheet name="Rsquare and Adjusted Rsquare" sheetId="7" r:id="rId7"/>
+    <sheet name="Loss Functions" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>Algorithm</t>
   </si>
@@ -283,9 +279,6 @@
     <t>It will capture the Noise</t>
   </si>
   <si>
-    <t>It works but overfit</t>
-  </si>
-  <si>
     <t>It will fit to the data</t>
   </si>
   <si>
@@ -365,13 +358,25 @@
   </si>
   <si>
     <t>XGBOOSTING PARAMETER TUNING</t>
+  </si>
+  <si>
+    <t>https://ml-cheatsheet.readthedocs.io/en/latest/logistic_regression.html</t>
+  </si>
+  <si>
+    <t>More Training Time. Decision tree is not the best model</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Yes O(depth)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +460,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,7 +473,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -532,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -567,7 +572,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -744,28 +749,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -774,304 +779,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="24.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="51.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="56.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="48" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="24.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="56.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="48" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" ht="75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="75">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="Q4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" ht="135">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" ht="75">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -1079,194 +1093,200 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T8" s="4"/>
-      <c r="U8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="N9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1283,10 +1303,11 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1308,8 +1329,9 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1333,8 +1355,9 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
@@ -1358,8 +1381,9 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1383,12 +1407,12 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1408,12 +1432,12 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1433,12 +1457,12 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1458,12 +1482,12 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1483,6 +1507,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,70 +1516,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="112.5" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="99" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="148.5" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1571,32 +1596,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
+      <c r="A1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1612,7 +1637,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1629,33 +1654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>94</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1667,30 +1692,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1701,4 +1726,37 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2019/Disadvantages of Models/Algorithms.xlsx
+++ b/2019/Disadvantages of Models/Algorithms.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Code\2019\Disadvantages of Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -13,12 +18,13 @@
     <sheet name="Ensemble Models" sheetId="3" r:id="rId4"/>
     <sheet name="Regularizations L1 and L2" sheetId="4" r:id="rId5"/>
     <sheet name="Gradient Descent" sheetId="5" r:id="rId6"/>
-    <sheet name="Rsquare and Adjusted Rsquare" sheetId="7" r:id="rId7"/>
-    <sheet name="Loss Functions" sheetId="8" r:id="rId8"/>
+    <sheet name="GridSearch and Stacking" sheetId="9" r:id="rId7"/>
+    <sheet name="Rsquare and Adjusted Rsquare" sheetId="7" r:id="rId8"/>
+    <sheet name="Loss Functions" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>Algorithm</t>
   </si>
@@ -371,12 +377,15 @@
   <si>
     <t>Yes O(depth)</t>
   </si>
+  <si>
+    <t>http://rasbt.github.io/mlxtend/user_guide/regressor/StackingCVRegressor/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,26 +758,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -779,15 +788,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="3" customWidth="1"/>
@@ -807,7 +816,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -875,7 +884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -925,7 +934,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" ht="75">
+    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,7 +986,7 @@
       </c>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="75">
+    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1034,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="135">
+    <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="75">
+    <row r="6" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="75">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="45">
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="45">
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30">
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1314,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -1331,7 +1340,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1357,7 +1366,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1392,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1418,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1434,7 +1443,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1459,7 +1468,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1484,7 +1493,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1516,16 +1525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
@@ -1539,7 +1548,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="112.5" customHeight="1">
+    <row r="2" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
@@ -1553,7 +1562,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="99" customHeight="1">
+    <row r="3" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -1567,7 +1576,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="148.5" customHeight="1">
+    <row r="5" spans="1:10" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>71</v>
       </c>
@@ -1596,16 +1605,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
@@ -1619,7 +1628,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
@@ -1654,31 +1663,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>93</v>
       </c>
@@ -1692,16 +1701,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>95</v>
       </c>
@@ -1728,17 +1760,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>98</v>
       </c>

--- a/2019/Disadvantages of Models/Algorithms.xlsx
+++ b/2019/Disadvantages of Models/Algorithms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="GridSearch and Stacking" sheetId="9" r:id="rId7"/>
     <sheet name="Rsquare and Adjusted Rsquare" sheetId="7" r:id="rId8"/>
     <sheet name="Loss Functions" sheetId="8" r:id="rId9"/>
+    <sheet name="Hypothesis" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
   <si>
     <t>Algorithm</t>
   </si>
@@ -379,6 +380,30 @@
   </si>
   <si>
     <t>http://rasbt.github.io/mlxtend/user_guide/regressor/StackingCVRegressor/</t>
+  </si>
+  <si>
+    <t>https://www.statisticshowto.datasciencecentral.com/probability-and-statistics/t-test/#ttest1</t>
+  </si>
+  <si>
+    <t>Ttest</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/inferential-statistics-series-t-test-using-numpy-2718f8f9bf2f</t>
+  </si>
+  <si>
+    <t>Ttest in Python</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/how-to-code-the-students-t-test-from-scratch-in-python/</t>
+  </si>
+  <si>
+    <t>python code</t>
+  </si>
+  <si>
+    <t>https://www.statisticshowto.datasciencecentral.com/one-sample-t-test/</t>
+  </si>
+  <si>
+    <t>One Sample T-test</t>
   </si>
 </sst>
 </file>
@@ -546,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -581,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -787,6 +812,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="ttest1" display="https://www.statisticshowto.datasciencecentral.com/probability-and-statistics/t-test/ - ttest1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
@@ -1666,7 +1759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1704,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/2019/Disadvantages of Models/Algorithms.xlsx
+++ b/2019/Disadvantages of Models/Algorithms.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Code\2019\Disadvantages of Models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -24,8 +19,8 @@
     <sheet name="Hypothesis" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>Algorithm</t>
   </si>
@@ -405,12 +400,15 @@
   <si>
     <t>One Sample T-test</t>
   </si>
+  <si>
+    <t>https://medium.com/usf-msds/choosing-the-right-metric-for-evaluating-machine-learning-models-part-2-86d5649a5428</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -606,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -783,26 +781,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -813,19 +811,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
         <v>103</v>
       </c>
@@ -842,7 +840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>105</v>
       </c>
@@ -850,7 +848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>107</v>
       </c>
@@ -858,7 +856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -881,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -889,7 +887,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="3" customWidth="1"/>
@@ -909,7 +907,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -977,7 +975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1025,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1079,7 +1077,7 @@
       </c>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1125,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="135">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="75">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="45">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="45">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="30">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1405,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -1433,7 +1431,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1459,7 +1457,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
@@ -1485,7 +1483,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1509,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +1534,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1561,7 +1559,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1586,7 +1584,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1618,16 +1616,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
@@ -1641,7 +1639,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="112.5" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
@@ -1655,7 +1653,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="99" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1667,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="148.5" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>71</v>
       </c>
@@ -1698,16 +1696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
@@ -1721,7 +1719,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
@@ -1756,33 +1754,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>93</v>
       </c>
@@ -1796,16 +1794,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
@@ -1819,16 +1817,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>95</v>
       </c>
@@ -1856,16 +1854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>98</v>
       </c>
@@ -1877,12 +1875,18 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019/Disadvantages of Models/Algorithms.xlsx
+++ b/2019/Disadvantages of Models/Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="981" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Rsquare and Adjusted Rsquare" sheetId="7" r:id="rId8"/>
     <sheet name="Loss Functions" sheetId="8" r:id="rId9"/>
     <sheet name="Hypothesis" sheetId="10" r:id="rId10"/>
+    <sheet name="EDA" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
   <si>
     <t>Algorithm</t>
   </si>
@@ -402,6 +403,15 @@
   </si>
   <si>
     <t>https://medium.com/usf-msds/choosing-the-right-metric-for-evaluating-machine-learning-models-part-2-86d5649a5428</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age_Null</t>
+  </si>
+  <si>
+    <t>Age_Forward</t>
   </si>
 </sst>
 </file>
@@ -474,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,6 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,6 +889,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="13">
+        <v>23</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>23</v>
+      </c>
+      <c r="D2" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13">
+        <v>-99</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13">
+        <v>-99</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13">
+        <v>32</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13">
+        <v>34</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>34</v>
+      </c>
+      <c r="D13" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13">
+        <v>35</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13">
+        <v>36</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V18"/>
@@ -1700,7 +1952,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1758,7 +2010,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1857,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
